--- a/LocalSearch.xlsx
+++ b/LocalSearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chene\Desktop\TravelingSalesman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0687E736-6F84-4335-8989-857BEF8BE968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A3E38D-B39E-4697-B315-D120C8622A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C30A23EE-AF0E-4523-8801-25F2D3970C73}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
   <si>
     <t>Dataset</t>
   </si>
@@ -123,6 +123,24 @@
   </si>
   <si>
     <t>Nodes</t>
+  </si>
+  <si>
+    <t>Pop Size</t>
+  </si>
+  <si>
+    <t>Mut Rate</t>
+  </si>
+  <si>
+    <t>Elite Size</t>
+  </si>
+  <si>
+    <t>Num Gen</t>
+  </si>
+  <si>
+    <t>*2</t>
+  </si>
+  <si>
+    <t>_2</t>
   </si>
 </sst>
 </file>
@@ -132,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +160,23 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -169,12 +204,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3414BC48-133A-4CA5-864E-86BD800BDF8F}">
-  <dimension ref="A1:AN28"/>
+  <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="K6" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,16 +542,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="G1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
@@ -617,7 +654,7 @@
       <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="L3">
@@ -673,7 +710,7 @@
       <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L5">
@@ -721,7 +758,7 @@
       <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="L7">
@@ -745,7 +782,7 @@
       <c r="F8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L8">
@@ -769,7 +806,7 @@
       <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L9">
@@ -817,7 +854,7 @@
       <c r="F11" t="s">
         <v>9</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="L11">
@@ -841,7 +878,7 @@
       <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="L12">
@@ -865,7 +902,7 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="L13">
@@ -889,7 +926,7 @@
       <c r="F14" t="s">
         <v>12</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L14">
@@ -910,7 +947,11 @@
       <c r="F15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" t="s">
+      <c r="H15">
+        <f>(1813713-1176151)/1176151</f>
+        <v>0.54207495466143374</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L15">
@@ -955,7 +996,7 @@
       <c r="AD17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="4"/>
+      <c r="AE17" s="2"/>
       <c r="AF17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1162,6 +1203,62 @@
       <c r="S28" s="1">
         <f t="shared" si="1"/>
         <v>6.6708454999999987</v>
+      </c>
+    </row>
+    <row r="30" spans="15:40" x14ac:dyDescent="0.3">
+      <c r="O30" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30">
+        <v>100</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="15:40" x14ac:dyDescent="0.3">
+      <c r="O31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P31">
+        <v>0.1</v>
+      </c>
+      <c r="Z31">
+        <v>0.01</v>
+      </c>
+      <c r="AJ31">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="15:40" x14ac:dyDescent="0.3">
+      <c r="O32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32">
+        <v>30</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="15:36" x14ac:dyDescent="0.3">
+      <c r="O33" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33">
+        <v>500</v>
+      </c>
+      <c r="Z33">
+        <v>1000</v>
+      </c>
+      <c r="AJ33">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/LocalSearch.xlsx
+++ b/LocalSearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chene\Desktop\TravelingSalesman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A3E38D-B39E-4697-B315-D120C8622A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03359F4F-2022-4E25-B06C-F295A1825849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C30A23EE-AF0E-4523-8801-25F2D3970C73}"/>
   </bookViews>
@@ -526,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3414BC48-133A-4CA5-864E-86BD800BDF8F}">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K6" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,11 +537,13 @@
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="21" max="21" width="10.21875" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" customWidth="1"/>
     <col min="23" max="23" width="10.109375" customWidth="1"/>
+    <col min="24" max="24" width="9.88671875" customWidth="1"/>
     <col min="30" max="30" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
@@ -556,7 +558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,25 +637,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <f>Q28</f>
-        <v>2.7108465799999997</v>
+        <f>Q13</f>
+        <v>0.49199999999999999</v>
       </c>
       <c r="C3">
-        <f>P28</f>
-        <v>2023465.8</v>
+        <f>P13</f>
+        <v>2232028.2000000002</v>
       </c>
       <c r="D3">
         <f>(C3-L3)/L3</f>
-        <v>9.832899399779339E-3</v>
+        <v>0.11391826278856342</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
+      <c r="G3">
+        <f>Q28</f>
+        <v>1.4759999999999998</v>
+      </c>
+      <c r="H3">
+        <f>P28</f>
+        <v>2029096.6</v>
+      </c>
+      <c r="I3">
+        <f>(H3-L3)/L3</f>
+        <v>1.2643012172597305E-2</v>
+      </c>
       <c r="K3" s="5" t="s">
         <v>1</v>
       </c>
@@ -666,26 +680,104 @@
       <c r="O3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>2063631</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>9239</v>
+      </c>
+      <c r="S3">
+        <v>2.77</v>
+      </c>
+      <c r="T3">
+        <v>985218</v>
+      </c>
+      <c r="U3">
+        <v>1.25</v>
+      </c>
+      <c r="V3">
+        <v>63177</v>
+      </c>
+      <c r="W3">
+        <v>2.8</v>
+      </c>
+      <c r="X3">
+        <v>277952</v>
+      </c>
+      <c r="Y3">
+        <v>0.64</v>
+      </c>
+      <c r="Z3">
+        <v>149799</v>
+      </c>
+      <c r="AA3">
+        <v>4.76</v>
+      </c>
+      <c r="AB3">
+        <v>2096720</v>
+      </c>
+      <c r="AC3">
+        <v>3.29</v>
+      </c>
+      <c r="AD3">
+        <v>1863812</v>
+      </c>
+      <c r="AE3">
+        <v>1.43</v>
+      </c>
+      <c r="AF3">
+        <v>2038020</v>
+      </c>
+      <c r="AG3">
+        <v>7.93</v>
+      </c>
+      <c r="AH3">
+        <v>1470161</v>
+      </c>
+      <c r="AI3">
+        <v>4.37</v>
+      </c>
+      <c r="AJ3">
+        <v>2615014</v>
+      </c>
+      <c r="AK3">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <f>S28</f>
-        <v>6.6708454999999987</v>
+        <f>S13</f>
+        <v>2.8499999999999996</v>
       </c>
       <c r="C4">
-        <f>R28</f>
-        <v>10383.200000000001</v>
+        <f>R13</f>
+        <v>9586.2999999999993</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D15" si="0">(C4-L4)/L4</f>
-        <v>0.37671705118005844</v>
+        <v>0.27105542296473073</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
+      <c r="G4">
+        <f>S28</f>
+        <v>12.767000000000001</v>
+      </c>
+      <c r="H4">
+        <f>R28</f>
+        <v>8747.5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I15" si="1">(H4-L4)/L4</f>
+        <v>0.15983823919384779</v>
+      </c>
       <c r="K4" t="s">
         <v>2</v>
       </c>
@@ -698,18 +790,50 @@
       <c r="O4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>2097146</v>
+      </c>
+      <c r="Q4">
+        <v>0.67</v>
+      </c>
+      <c r="R4">
+        <v>9158</v>
+      </c>
+      <c r="S4">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <f>U13</f>
+        <v>1.25</v>
+      </c>
+      <c r="C5">
+        <f>T13</f>
+        <v>985218</v>
+      </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.10260582673781471</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
+      <c r="G5">
+        <f>U28</f>
+        <v>12.348000000000001</v>
+      </c>
+      <c r="H5">
+        <f>T28</f>
+        <v>930693.8</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>4.158511800307995E-2</v>
+      </c>
       <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,18 +846,50 @@
       <c r="O5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>2543096</v>
+      </c>
+      <c r="Q5">
+        <v>0.37</v>
+      </c>
+      <c r="R5">
+        <v>9972</v>
+      </c>
+      <c r="S5">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <f>W13</f>
+        <v>2.8</v>
+      </c>
+      <c r="C6">
+        <f>V13</f>
+        <v>63177</v>
+      </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.20010257774063028</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
       </c>
+      <c r="G6">
+        <f>W28</f>
+        <v>16.781000000000002</v>
+      </c>
+      <c r="H6">
+        <f>V28</f>
+        <v>59514</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.13052067701308817</v>
+      </c>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -746,18 +902,50 @@
       <c r="O6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>2340241</v>
+      </c>
+      <c r="Q6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R6">
+        <v>8809</v>
+      </c>
+      <c r="S6">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <f>Y13</f>
+        <v>0.64</v>
+      </c>
+      <c r="C7">
+        <f>X13</f>
+        <v>277952</v>
+      </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
       </c>
+      <c r="G7">
+        <f>Y28</f>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="H7">
+        <f>X28</f>
+        <v>278181.09999999998</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>8.2424303476850936E-4</v>
+      </c>
       <c r="K7" s="5" t="s">
         <v>5</v>
       </c>
@@ -770,18 +958,50 @@
       <c r="O7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>2045909</v>
+      </c>
+      <c r="Q7">
+        <v>0.35</v>
+      </c>
+      <c r="R7">
+        <v>9789</v>
+      </c>
+      <c r="S7">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <f>AA13</f>
+        <v>4.76</v>
+      </c>
+      <c r="C8">
+        <f>Z13</f>
+        <v>149799</v>
+      </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.49156137049317444</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
+      <c r="G8">
+        <f>AA28</f>
+        <v>44.002000000000002</v>
+      </c>
+      <c r="H8">
+        <f>Z28</f>
+        <v>149595.6</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.48953609941153636</v>
+      </c>
       <c r="K8" s="1" t="s">
         <v>6</v>
       </c>
@@ -794,18 +1014,50 @@
       <c r="O8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>2317862</v>
+      </c>
+      <c r="Q8">
+        <v>0.42</v>
+      </c>
+      <c r="R8">
+        <v>9874</v>
+      </c>
+      <c r="S8">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <f>AC13</f>
+        <v>3.29</v>
+      </c>
+      <c r="C9">
+        <f>AB13</f>
+        <v>2096720</v>
+      </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.34832096510745564</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
       </c>
+      <c r="G9">
+        <f>AC28</f>
+        <v>23.166999999999998</v>
+      </c>
+      <c r="H9">
+        <f>AB28</f>
+        <v>1909857.9</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.2281570486026262</v>
+      </c>
       <c r="K9" s="1" t="s">
         <v>7</v>
       </c>
@@ -818,18 +1070,50 @@
       <c r="O9" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>2110249</v>
+      </c>
+      <c r="Q9">
+        <v>0.46</v>
+      </c>
+      <c r="R9">
+        <v>9109</v>
+      </c>
+      <c r="S9">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <f>AE13</f>
+        <v>1.43</v>
+      </c>
+      <c r="C10">
+        <f>AD13</f>
+        <v>1863812</v>
+      </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.33512705402150889</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
       </c>
+      <c r="G10">
+        <f>AE28</f>
+        <v>4.5329999999999995</v>
+      </c>
+      <c r="H10">
+        <f>AD28</f>
+        <v>1420789.1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1.777108714230358E-2</v>
+      </c>
       <c r="K10" t="s">
         <v>8</v>
       </c>
@@ -842,18 +1126,50 @@
       <c r="O10" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>2080381</v>
+      </c>
+      <c r="Q10">
+        <v>0.39</v>
+      </c>
+      <c r="R10">
+        <v>9922</v>
+      </c>
+      <c r="S10">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11">
+        <f>AG13</f>
+        <v>7.93</v>
+      </c>
+      <c r="C11">
+        <f>AF13</f>
+        <v>2038020</v>
+      </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>2.1093257497856448</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
+      <c r="G11">
+        <f>AG28</f>
+        <v>23.95</v>
+      </c>
+      <c r="H11">
+        <f>AF28</f>
+        <v>4952963</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>6.5565379111272488</v>
+      </c>
       <c r="K11" s="6" t="s">
         <v>9</v>
       </c>
@@ -866,18 +1182,50 @@
       <c r="O11" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>2186778</v>
+      </c>
+      <c r="Q11">
+        <v>0.42</v>
+      </c>
+      <c r="R11">
+        <v>10258</v>
+      </c>
+      <c r="S11">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12">
+        <f>AI13</f>
+        <v>4.37</v>
+      </c>
+      <c r="C12">
+        <f>AH13</f>
+        <v>1470161</v>
+      </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.81457449802270065</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
+      <c r="G12">
+        <f>AI28</f>
+        <v>49.836999999999996</v>
+      </c>
+      <c r="H12">
+        <f>AH28</f>
+        <v>1244917.8</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.53656374506909443</v>
+      </c>
       <c r="K12" s="6" t="s">
         <v>21</v>
       </c>
@@ -890,18 +1238,50 @@
       <c r="O12" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>2534989</v>
+      </c>
+      <c r="Q12">
+        <v>0.76</v>
+      </c>
+      <c r="R12">
+        <v>9733</v>
+      </c>
+      <c r="S12">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13">
+        <f>AK13</f>
+        <v>4.45</v>
+      </c>
+      <c r="C13">
+        <f>AJ13</f>
+        <v>2615014</v>
+      </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1.2233658773405796</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
+      <c r="G13">
+        <f>AK28</f>
+        <v>67.239999999999995</v>
+      </c>
+      <c r="H13">
+        <f>AJ28</f>
+        <v>2010078</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0.7090305581511217</v>
+      </c>
       <c r="K13" s="6" t="s">
         <v>11</v>
       </c>
@@ -914,18 +1294,142 @@
       <c r="O13" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="P13" s="1">
+        <f>AVERAGE(P3:P12)</f>
+        <v>2232028.2000000002</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>AVERAGE(Q3:Q12)</f>
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" ref="R13:S13" si="2">AVERAGE(R3:R12)</f>
+        <v>9586.2999999999993</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="2"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" ref="T13" si="3">AVERAGE(T3:T12)</f>
+        <v>985218</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" ref="U13" si="4">AVERAGE(U3:U12)</f>
+        <v>1.25</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" ref="V13" si="5">AVERAGE(V3:V12)</f>
+        <v>63177</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" ref="W13" si="6">AVERAGE(W3:W12)</f>
+        <v>2.8</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" ref="X13" si="7">AVERAGE(X3:X12)</f>
+        <v>277952</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" ref="Y13" si="8">AVERAGE(Y3:Y12)</f>
+        <v>0.64</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" ref="Z13" si="9">AVERAGE(Z3:Z12)</f>
+        <v>149799</v>
+      </c>
+      <c r="AA13" s="1">
+        <f t="shared" ref="AA13" si="10">AVERAGE(AA3:AA12)</f>
+        <v>4.76</v>
+      </c>
+      <c r="AB13" s="1">
+        <f t="shared" ref="AB13" si="11">AVERAGE(AB3:AB12)</f>
+        <v>2096720</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" ref="AC13" si="12">AVERAGE(AC3:AC12)</f>
+        <v>3.29</v>
+      </c>
+      <c r="AD13" s="1">
+        <f t="shared" ref="AD13" si="13">AVERAGE(AD3:AD12)</f>
+        <v>1863812</v>
+      </c>
+      <c r="AE13" s="1">
+        <f t="shared" ref="AE13" si="14">AVERAGE(AE3:AE12)</f>
+        <v>1.43</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" ref="AF13" si="15">AVERAGE(AF3:AF12)</f>
+        <v>2038020</v>
+      </c>
+      <c r="AG13" s="1">
+        <f t="shared" ref="AG13" si="16">AVERAGE(AG3:AG12)</f>
+        <v>7.93</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" ref="AH13" si="17">AVERAGE(AH3:AH12)</f>
+        <v>1470161</v>
+      </c>
+      <c r="AI13" s="1">
+        <f t="shared" ref="AI13" si="18">AVERAGE(AI3:AI12)</f>
+        <v>4.37</v>
+      </c>
+      <c r="AJ13" s="1">
+        <f t="shared" ref="AJ13" si="19">AVERAGE(AJ3:AJ12)</f>
+        <v>2615014</v>
+      </c>
+      <c r="AK13" s="1">
+        <f t="shared" ref="AK13" si="20">AVERAGE(AK3:AK12)</f>
+        <v>4.45</v>
+      </c>
+      <c r="AL13" s="1" t="e">
+        <f t="shared" ref="AL13" si="21">AVERAGE(AL3:AL12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM13" s="1" t="e">
+        <f t="shared" ref="AM13" si="22">AVERAGE(AM3:AM12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN13" s="1" t="e">
+        <f t="shared" ref="AN13" si="23">AVERAGE(AN3:AN12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO13" s="1" t="e">
+        <f t="shared" ref="AO13" si="24">AVERAGE(AO3:AO12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="D14">
+      <c r="B14" t="e">
+        <f>AM13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C14" t="e">
+        <f>AL13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" t="e">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
+      <c r="G14">
+        <f>AM28</f>
+        <v>0.32</v>
+      </c>
+      <c r="H14">
+        <f>AL28</f>
+        <v>62962</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K14" s="5" t="s">
         <v>12</v>
       </c>
@@ -936,20 +1440,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="D15">
+      <c r="B15" t="e">
+        <f>AO13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C15" t="e">
+        <f>AN13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" t="e">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
+      <c r="G15">
+        <f>AO28</f>
+        <v>72.448000000000008</v>
+      </c>
       <c r="H15">
-        <f>(1813713-1176151)/1176151</f>
-        <v>0.54207495466143374</v>
+        <f>AN28</f>
+        <v>202699.4</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0.5273975389762563</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>22</v>
@@ -961,12 +1481,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="P16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="15:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
       <c r="O17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1014,7 +1537,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="15:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.1</v>
+      </c>
       <c r="O18" s="1">
         <v>0</v>
       </c>
@@ -1022,84 +1548,375 @@
         <v>2003763</v>
       </c>
       <c r="Q18">
-        <v>2.2023999999999999</v>
+        <v>3.96</v>
       </c>
       <c r="R18">
-        <v>10749</v>
+        <v>8663</v>
       </c>
       <c r="S18">
-        <v>5.4988976000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="15:40" x14ac:dyDescent="0.3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="T18">
+        <v>906019</v>
+      </c>
+      <c r="U18">
+        <v>13.28</v>
+      </c>
+      <c r="V18">
+        <v>56356</v>
+      </c>
+      <c r="W18">
+        <v>15.07</v>
+      </c>
+      <c r="X18">
+        <v>277952</v>
+      </c>
+      <c r="Y18">
+        <v>0.39</v>
+      </c>
+      <c r="Z18">
+        <v>152480</v>
+      </c>
+      <c r="AA18">
+        <v>54.94</v>
+      </c>
+      <c r="AB18">
+        <v>1874100</v>
+      </c>
+      <c r="AC18">
+        <v>29.98</v>
+      </c>
+      <c r="AD18">
+        <v>1431157</v>
+      </c>
+      <c r="AE18">
+        <v>3.65</v>
+      </c>
+      <c r="AH18">
+        <v>1289070</v>
+      </c>
+      <c r="AI18">
+        <v>39.090000000000003</v>
+      </c>
+      <c r="AJ18">
+        <v>2010078</v>
+      </c>
+      <c r="AK18">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="AL18">
+        <v>62962</v>
+      </c>
+      <c r="AM18">
+        <v>0.25</v>
+      </c>
+      <c r="AN18">
+        <v>187258</v>
+      </c>
+      <c r="AO18">
+        <v>90.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.2</v>
+      </c>
       <c r="O19" s="1">
         <v>1</v>
       </c>
       <c r="P19">
-        <v>2031423</v>
+        <v>2053249</v>
       </c>
       <c r="Q19">
-        <v>1.7366927000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="R19">
-        <v>10215</v>
+        <v>8999</v>
       </c>
       <c r="S19">
-        <v>5.3699371999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="15:40" x14ac:dyDescent="0.3">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="T19">
+        <v>933748</v>
+      </c>
+      <c r="U19">
+        <v>14.89</v>
+      </c>
+      <c r="V19">
+        <v>60459</v>
+      </c>
+      <c r="W19">
+        <v>18.41</v>
+      </c>
+      <c r="X19">
+        <v>277952</v>
+      </c>
+      <c r="Y19">
+        <v>0.35</v>
+      </c>
+      <c r="Z19">
+        <v>156784</v>
+      </c>
+      <c r="AA19">
+        <v>47.98</v>
+      </c>
+      <c r="AB19">
+        <v>1969564</v>
+      </c>
+      <c r="AC19">
+        <v>17.13</v>
+      </c>
+      <c r="AD19">
+        <v>1401831</v>
+      </c>
+      <c r="AE19">
+        <v>5.31</v>
+      </c>
+      <c r="AH19">
+        <v>1224014</v>
+      </c>
+      <c r="AI19">
+        <v>49.47</v>
+      </c>
+      <c r="AL19">
+        <v>62962</v>
+      </c>
+      <c r="AM19">
+        <v>0.34</v>
+      </c>
+      <c r="AN19">
+        <v>187238</v>
+      </c>
+      <c r="AO19">
+        <v>90.51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.3</v>
+      </c>
       <c r="O20" s="1">
         <v>2</v>
       </c>
       <c r="P20">
-        <v>2016322</v>
+        <v>2040814</v>
       </c>
       <c r="Q20">
-        <v>3.9643761999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R20">
-        <v>10390</v>
+        <v>8895</v>
       </c>
       <c r="S20">
-        <v>6.5233046999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="15:40" x14ac:dyDescent="0.3">
+        <v>7.76</v>
+      </c>
+      <c r="T20">
+        <v>921064</v>
+      </c>
+      <c r="U20">
+        <v>9.91</v>
+      </c>
+      <c r="V20">
+        <v>57768</v>
+      </c>
+      <c r="W20">
+        <v>16.97</v>
+      </c>
+      <c r="X20">
+        <v>277952</v>
+      </c>
+      <c r="Y20">
+        <v>0.95</v>
+      </c>
+      <c r="Z20">
+        <v>148917</v>
+      </c>
+      <c r="AA20">
+        <v>53.46</v>
+      </c>
+      <c r="AB20">
+        <v>2027070</v>
+      </c>
+      <c r="AC20">
+        <v>12.3</v>
+      </c>
+      <c r="AD20">
+        <v>1441966</v>
+      </c>
+      <c r="AE20">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="AH20">
+        <v>1180903</v>
+      </c>
+      <c r="AI20">
+        <v>57.52</v>
+      </c>
+      <c r="AL20">
+        <v>62962</v>
+      </c>
+      <c r="AM20">
+        <v>0.32</v>
+      </c>
+      <c r="AN20">
+        <v>190447</v>
+      </c>
+      <c r="AO20">
+        <v>93.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.4</v>
+      </c>
       <c r="O21" s="1">
         <v>3</v>
       </c>
       <c r="P21">
-        <v>2065220</v>
+        <v>2023779</v>
       </c>
       <c r="Q21">
-        <v>1.9561172</v>
+        <v>1.35</v>
       </c>
       <c r="R21">
-        <v>10205</v>
+        <v>8552</v>
       </c>
       <c r="S21">
-        <v>6.2109417999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="15:40" x14ac:dyDescent="0.3">
+        <v>13.66</v>
+      </c>
+      <c r="T21">
+        <v>954938</v>
+      </c>
+      <c r="U21">
+        <v>12.99</v>
+      </c>
+      <c r="V21">
+        <v>61534</v>
+      </c>
+      <c r="W21">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="X21">
+        <v>277952</v>
+      </c>
+      <c r="Y21">
+        <v>0.32</v>
+      </c>
+      <c r="Z21">
+        <v>167188</v>
+      </c>
+      <c r="AA21">
+        <v>38.76</v>
+      </c>
+      <c r="AB21">
+        <v>1991204</v>
+      </c>
+      <c r="AC21">
+        <v>21.78</v>
+      </c>
+      <c r="AD21">
+        <v>1478199</v>
+      </c>
+      <c r="AE21">
+        <v>5.41</v>
+      </c>
+      <c r="AH21">
+        <v>1337808</v>
+      </c>
+      <c r="AI21">
+        <v>38.11</v>
+      </c>
+      <c r="AL21">
+        <v>62962</v>
+      </c>
+      <c r="AM21">
+        <v>0.35</v>
+      </c>
+      <c r="AN21">
+        <v>174861</v>
+      </c>
+      <c r="AO21">
+        <v>96.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.5</v>
+      </c>
       <c r="O22" s="1">
         <v>4</v>
       </c>
       <c r="P22">
-        <v>2003763</v>
+        <v>2031423</v>
       </c>
       <c r="Q22">
-        <v>2.4878111999999999</v>
+        <v>0.85</v>
       </c>
       <c r="R22">
-        <v>10562</v>
+        <v>8817</v>
       </c>
       <c r="S22">
-        <v>7.5437911</v>
-      </c>
-    </row>
-    <row r="23" spans="15:40" x14ac:dyDescent="0.3">
+        <v>13.11</v>
+      </c>
+      <c r="T22">
+        <v>952948</v>
+      </c>
+      <c r="U22">
+        <v>10.4</v>
+      </c>
+      <c r="V22">
+        <v>61150</v>
+      </c>
+      <c r="W22">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="X22">
+        <v>277952</v>
+      </c>
+      <c r="Y22">
+        <v>0.39</v>
+      </c>
+      <c r="Z22">
+        <v>131782</v>
+      </c>
+      <c r="AA22">
+        <v>42.91</v>
+      </c>
+      <c r="AB22">
+        <v>1853270</v>
+      </c>
+      <c r="AC22">
+        <v>26.17</v>
+      </c>
+      <c r="AD22">
+        <v>1395981</v>
+      </c>
+      <c r="AE22">
+        <v>4.03</v>
+      </c>
+      <c r="AH22">
+        <v>1352246</v>
+      </c>
+      <c r="AI22">
+        <v>49.48</v>
+      </c>
+      <c r="AL22">
+        <v>62962</v>
+      </c>
+      <c r="AM22">
+        <v>0.43</v>
+      </c>
+      <c r="AN22">
+        <v>186648</v>
+      </c>
+      <c r="AO22">
+        <v>87.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.6</v>
+      </c>
       <c r="O23" s="1">
         <v>5</v>
       </c>
@@ -1107,33 +1924,147 @@
         <v>2031423</v>
       </c>
       <c r="Q23">
-        <v>3.4359478000000001</v>
+        <v>1.03</v>
       </c>
       <c r="R23">
-        <v>10149</v>
+        <v>8557</v>
       </c>
       <c r="S23">
-        <v>7.7156406000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="15:40" x14ac:dyDescent="0.3">
+        <v>15.12</v>
+      </c>
+      <c r="T23">
+        <v>960550</v>
+      </c>
+      <c r="U23">
+        <v>10.09</v>
+      </c>
+      <c r="V23">
+        <v>60561</v>
+      </c>
+      <c r="W23">
+        <v>16.29</v>
+      </c>
+      <c r="X23">
+        <v>280243</v>
+      </c>
+      <c r="Y23">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Z23">
+        <v>198818</v>
+      </c>
+      <c r="AA23">
+        <v>12.82</v>
+      </c>
+      <c r="AB23">
+        <v>1923629</v>
+      </c>
+      <c r="AC23">
+        <v>27.21</v>
+      </c>
+      <c r="AD23">
+        <v>1395981</v>
+      </c>
+      <c r="AE23">
+        <v>6.16</v>
+      </c>
+      <c r="AH23">
+        <v>1126630</v>
+      </c>
+      <c r="AI23">
+        <v>59.09</v>
+      </c>
+      <c r="AL23">
+        <v>62962</v>
+      </c>
+      <c r="AM23">
+        <v>0.39</v>
+      </c>
+      <c r="AN23">
+        <v>234669</v>
+      </c>
+      <c r="AO23">
+        <v>44.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.7</v>
+      </c>
       <c r="O24" s="1">
         <v>6</v>
       </c>
       <c r="P24">
-        <v>2031423</v>
+        <v>2039906</v>
       </c>
       <c r="Q24">
-        <v>4.0433377999999998</v>
+        <v>1.51</v>
       </c>
       <c r="R24">
-        <v>10476</v>
+        <v>9325</v>
       </c>
       <c r="S24">
-        <v>4.0883395</v>
-      </c>
-    </row>
-    <row r="25" spans="15:40" x14ac:dyDescent="0.3">
+        <v>7.28</v>
+      </c>
+      <c r="T24">
+        <v>930493</v>
+      </c>
+      <c r="U24">
+        <v>15.7</v>
+      </c>
+      <c r="V24">
+        <v>61900</v>
+      </c>
+      <c r="W24">
+        <v>14.11</v>
+      </c>
+      <c r="X24">
+        <v>277952</v>
+      </c>
+      <c r="Y24">
+        <v>0.32</v>
+      </c>
+      <c r="Z24">
+        <v>134596</v>
+      </c>
+      <c r="AA24">
+        <v>54.88</v>
+      </c>
+      <c r="AB24">
+        <v>1850890</v>
+      </c>
+      <c r="AC24">
+        <v>25.68</v>
+      </c>
+      <c r="AD24">
+        <v>1395981</v>
+      </c>
+      <c r="AE24">
+        <v>3.7</v>
+      </c>
+      <c r="AH24">
+        <v>1218700</v>
+      </c>
+      <c r="AI24">
+        <v>56.81</v>
+      </c>
+      <c r="AL24">
+        <v>62962</v>
+      </c>
+      <c r="AM24">
+        <v>0.3</v>
+      </c>
+      <c r="AN24">
+        <v>200169</v>
+      </c>
+      <c r="AO24">
+        <v>66.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.8</v>
+      </c>
       <c r="O25" s="1">
         <v>7</v>
       </c>
@@ -1141,71 +2072,333 @@
         <v>2003763</v>
       </c>
       <c r="Q25">
-        <v>2.2497246</v>
+        <v>0.74</v>
       </c>
       <c r="R25">
-        <v>10082</v>
+        <v>8452</v>
       </c>
       <c r="S25">
-        <v>8.8277573999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="15:40" x14ac:dyDescent="0.3">
+        <v>14.65</v>
+      </c>
+      <c r="T25">
+        <v>940021</v>
+      </c>
+      <c r="U25">
+        <v>12.47</v>
+      </c>
+      <c r="V25">
+        <v>58398</v>
+      </c>
+      <c r="W25">
+        <v>17.75</v>
+      </c>
+      <c r="X25">
+        <v>277952</v>
+      </c>
+      <c r="Y25">
+        <v>0.36</v>
+      </c>
+      <c r="Z25">
+        <v>135735</v>
+      </c>
+      <c r="AA25">
+        <v>52.05</v>
+      </c>
+      <c r="AB25">
+        <v>1912960</v>
+      </c>
+      <c r="AC25">
+        <v>19.16</v>
+      </c>
+      <c r="AD25">
+        <v>1474833</v>
+      </c>
+      <c r="AE25">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AF25">
+        <v>4952963</v>
+      </c>
+      <c r="AG25">
+        <v>23.95</v>
+      </c>
+      <c r="AH25">
+        <v>1230134</v>
+      </c>
+      <c r="AI25">
+        <v>56.77</v>
+      </c>
+      <c r="AL25">
+        <v>62962</v>
+      </c>
+      <c r="AM25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AN25">
+        <v>216404</v>
+      </c>
+      <c r="AO25">
+        <v>48.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.9</v>
+      </c>
       <c r="O26" s="1">
         <v>8</v>
       </c>
       <c r="P26">
-        <v>2023779</v>
+        <v>2031423</v>
       </c>
       <c r="Q26">
-        <v>2.0056113999999998</v>
+        <v>1.36</v>
       </c>
       <c r="R26">
-        <v>9581</v>
+        <v>8477</v>
       </c>
       <c r="S26">
-        <v>6.8766465999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="15:40" x14ac:dyDescent="0.3">
+        <v>14.96</v>
+      </c>
+      <c r="T26">
+        <v>903504</v>
+      </c>
+      <c r="U26">
+        <v>9.58</v>
+      </c>
+      <c r="V26">
+        <v>60500</v>
+      </c>
+      <c r="W26">
+        <v>14.33</v>
+      </c>
+      <c r="X26">
+        <v>277952</v>
+      </c>
+      <c r="Y26">
+        <v>0.35</v>
+      </c>
+      <c r="Z26">
+        <v>138688</v>
+      </c>
+      <c r="AA26">
+        <v>43.68</v>
+      </c>
+      <c r="AB26">
+        <v>1975472</v>
+      </c>
+      <c r="AC26">
+        <v>25.04</v>
+      </c>
+      <c r="AD26">
+        <v>1395981</v>
+      </c>
+      <c r="AE26">
+        <v>3.11</v>
+      </c>
+      <c r="AH26">
+        <v>1109499</v>
+      </c>
+      <c r="AI26">
+        <v>56.64</v>
+      </c>
+      <c r="AL26">
+        <v>62962</v>
+      </c>
+      <c r="AM26">
+        <v>0.31</v>
+      </c>
+      <c r="AN26">
+        <v>202546</v>
+      </c>
+      <c r="AO26">
+        <v>68.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
       <c r="O27" s="1">
         <v>9</v>
       </c>
       <c r="P27">
-        <v>2023779</v>
+        <v>2031423</v>
       </c>
       <c r="Q27">
-        <v>3.0264468999999998</v>
+        <v>1.75</v>
       </c>
       <c r="R27">
-        <v>11423</v>
+        <v>8738</v>
       </c>
       <c r="S27">
-        <v>8.0531985000000006</v>
-      </c>
-    </row>
-    <row r="28" spans="15:40" x14ac:dyDescent="0.3">
+        <v>15.37</v>
+      </c>
+      <c r="T27">
+        <v>903653</v>
+      </c>
+      <c r="U27">
+        <v>14.17</v>
+      </c>
+      <c r="V27">
+        <v>56514</v>
+      </c>
+      <c r="W27">
+        <v>17.63</v>
+      </c>
+      <c r="X27">
+        <v>277952</v>
+      </c>
+      <c r="Y27">
+        <v>0.37</v>
+      </c>
+      <c r="Z27">
+        <v>130968</v>
+      </c>
+      <c r="AA27">
+        <v>38.54</v>
+      </c>
+      <c r="AB27">
+        <v>1720420</v>
+      </c>
+      <c r="AC27">
+        <v>27.22</v>
+      </c>
+      <c r="AD27">
+        <v>1395981</v>
+      </c>
+      <c r="AE27">
+        <v>6.76</v>
+      </c>
+      <c r="AH27">
+        <v>1380174</v>
+      </c>
+      <c r="AI27">
+        <v>35.39</v>
+      </c>
+      <c r="AL27">
+        <v>62962</v>
+      </c>
+      <c r="AM27">
+        <v>0.23</v>
+      </c>
+      <c r="AN27">
+        <v>246754</v>
+      </c>
+      <c r="AO27">
+        <v>38.159999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="O28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P28" s="1">
         <f>AVERAGE(P18:P27)</f>
-        <v>2023465.8</v>
+        <v>2029096.6</v>
       </c>
       <c r="Q28" s="1">
         <f>AVERAGE(Q18:Q27)</f>
-        <v>2.7108465799999997</v>
+        <v>1.4759999999999998</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" ref="R28:S28" si="1">AVERAGE(R18:R27)</f>
-        <v>10383.200000000001</v>
+        <f t="shared" ref="R28:AO28" si="25">AVERAGE(R18:R27)</f>
+        <v>8747.5</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6708454999999987</v>
-      </c>
-    </row>
-    <row r="30" spans="15:40" x14ac:dyDescent="0.3">
+        <f t="shared" si="25"/>
+        <v>12.767000000000001</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="25"/>
+        <v>930693.8</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="25"/>
+        <v>12.348000000000001</v>
+      </c>
+      <c r="V28" s="1">
+        <f t="shared" si="25"/>
+        <v>59514</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" si="25"/>
+        <v>16.781000000000002</v>
+      </c>
+      <c r="X28" s="1">
+        <f t="shared" si="25"/>
+        <v>278181.09999999998</v>
+      </c>
+      <c r="Y28" s="1">
+        <f t="shared" si="25"/>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="Z28" s="1">
+        <f t="shared" si="25"/>
+        <v>149595.6</v>
+      </c>
+      <c r="AA28" s="1">
+        <f t="shared" si="25"/>
+        <v>44.002000000000002</v>
+      </c>
+      <c r="AB28" s="1">
+        <f t="shared" si="25"/>
+        <v>1909857.9</v>
+      </c>
+      <c r="AC28" s="1">
+        <f t="shared" si="25"/>
+        <v>23.166999999999998</v>
+      </c>
+      <c r="AD28" s="1">
+        <f t="shared" si="25"/>
+        <v>1420789.1</v>
+      </c>
+      <c r="AE28" s="1">
+        <f t="shared" si="25"/>
+        <v>4.5329999999999995</v>
+      </c>
+      <c r="AF28" s="1">
+        <f t="shared" si="25"/>
+        <v>4952963</v>
+      </c>
+      <c r="AG28" s="1">
+        <f t="shared" si="25"/>
+        <v>23.95</v>
+      </c>
+      <c r="AH28" s="1">
+        <f t="shared" si="25"/>
+        <v>1244917.8</v>
+      </c>
+      <c r="AI28" s="1">
+        <f t="shared" si="25"/>
+        <v>49.836999999999996</v>
+      </c>
+      <c r="AJ28" s="1">
+        <f t="shared" si="25"/>
+        <v>2010078</v>
+      </c>
+      <c r="AK28" s="1">
+        <f t="shared" si="25"/>
+        <v>67.239999999999995</v>
+      </c>
+      <c r="AL28" s="1">
+        <f t="shared" si="25"/>
+        <v>62962</v>
+      </c>
+      <c r="AM28" s="1">
+        <f t="shared" si="25"/>
+        <v>0.32</v>
+      </c>
+      <c r="AN28" s="1">
+        <f t="shared" si="25"/>
+        <v>202699.4</v>
+      </c>
+      <c r="AO28" s="1">
+        <f t="shared" si="25"/>
+        <v>72.448000000000008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="O30" t="s">
         <v>30</v>
       </c>
@@ -1219,7 +2412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="15:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="O31" t="s">
         <v>31</v>
       </c>
@@ -1233,7 +2426,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="15:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="O32" t="s">
         <v>32</v>
       </c>
